--- a/db/doc/UserInfo.xlsx
+++ b/db/doc/UserInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiho/Desktop/DB_API_assignment/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiho/Desktop/DB_API_assignment/db/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75EC173-3CAF-424F-93DF-285DBA7CF047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B0A1E8-FD8F-1D4C-8E45-D05543711F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t>dja</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>PW</t>
+  </si>
+  <si>
+    <t>FavCategory</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538689E2-BA57-8244-89FA-047ECABE057A}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +528,7 @@
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -535,8 +541,11 @@
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -544,13 +553,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -558,13 +570,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -572,13 +587,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -586,13 +604,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -600,13 +621,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -614,13 +638,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -628,13 +655,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -642,13 +672,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -656,13 +689,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -670,13 +706,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -684,13 +723,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -698,13 +740,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -712,13 +757,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -726,13 +774,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -740,13 +791,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -754,13 +808,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -768,13 +825,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -782,13 +842,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -796,13 +859,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -810,13 +876,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -824,13 +893,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -838,13 +910,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -852,13 +927,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -866,13 +944,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -880,13 +961,16 @@
         <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -894,13 +978,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -908,13 +995,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -922,13 +1012,16 @@
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -936,13 +1029,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -950,10 +1046,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/db/doc/UserInfo.xlsx
+++ b/db/doc/UserInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiho/Desktop/DB_API_assignment/db/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiho/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF79DA5-9445-1547-8F9B-534C7046E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35771458-C18C-334E-8980-596721AB4422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12240" windowHeight="12360" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
   </bookViews>
   <sheets>
     <sheet name="UserInfo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Balance</t>
   </si>
@@ -74,7 +74,23 @@
     <t>hseop884</t>
   </si>
   <si>
-    <t>asmin</t>
+    <t>xotn531</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jitae19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>taeji19</t>
+  </si>
+  <si>
+    <t>kimlee121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -445,15 +461,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538689E2-BA57-8244-89FA-047ECABE057A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -546,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -555,11 +572,80 @@
         <v>450</v>
       </c>
       <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>211510</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100501</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38250</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>